--- a/ProyectoFinal/05 Poblacion/casa.xlsx
+++ b/ProyectoFinal/05 Poblacion/casa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="120">
   <si>
     <t>numRegistro</t>
   </si>
@@ -57,171 +57,6 @@
     <t>estadoDeConstruccion</t>
   </si>
   <si>
-    <t>fConstruccion</t>
-  </si>
-  <si>
-    <t>11/16/1951</t>
-  </si>
-  <si>
-    <t>03/26/1947</t>
-  </si>
-  <si>
-    <t>04/15/2013</t>
-  </si>
-  <si>
-    <t>06/13/1932</t>
-  </si>
-  <si>
-    <t>06/23/1933</t>
-  </si>
-  <si>
-    <t>04/21/1942</t>
-  </si>
-  <si>
-    <t>07/16/1995</t>
-  </si>
-  <si>
-    <t>12/22/1975</t>
-  </si>
-  <si>
-    <t>05/26/1944</t>
-  </si>
-  <si>
-    <t>05/22/1943</t>
-  </si>
-  <si>
-    <t>05/30/1995</t>
-  </si>
-  <si>
-    <t>08/26/1970</t>
-  </si>
-  <si>
-    <t>04/23/1909</t>
-  </si>
-  <si>
-    <t>11/20/1962</t>
-  </si>
-  <si>
-    <t>02/27/1902</t>
-  </si>
-  <si>
-    <t>01/30/1903</t>
-  </si>
-  <si>
-    <t>04/16/1916</t>
-  </si>
-  <si>
-    <t>12/21/1923</t>
-  </si>
-  <si>
-    <t>09/19/1910</t>
-  </si>
-  <si>
-    <t>03/30/1929</t>
-  </si>
-  <si>
-    <t>01/14/1921</t>
-  </si>
-  <si>
-    <t>04/22/1997</t>
-  </si>
-  <si>
-    <t>07/25/1911</t>
-  </si>
-  <si>
-    <t>10/21/1981</t>
-  </si>
-  <si>
-    <t>05/15/1919</t>
-  </si>
-  <si>
-    <t>06/25/1973</t>
-  </si>
-  <si>
-    <t>08/17/1947</t>
-  </si>
-  <si>
-    <t>12/28/1945</t>
-  </si>
-  <si>
-    <t>11/22/1927</t>
-  </si>
-  <si>
-    <t>10/19/1949</t>
-  </si>
-  <si>
-    <t>12/14/1930</t>
-  </si>
-  <si>
-    <t>01/24/2012</t>
-  </si>
-  <si>
-    <t>06/13/2018</t>
-  </si>
-  <si>
-    <t>03/15/1913</t>
-  </si>
-  <si>
-    <t>12/25/2001</t>
-  </si>
-  <si>
-    <t>07/22/1931</t>
-  </si>
-  <si>
-    <t>05/30/1904</t>
-  </si>
-  <si>
-    <t>01/24/1998</t>
-  </si>
-  <si>
-    <t>04/16/1908</t>
-  </si>
-  <si>
-    <t>03/22/1939</t>
-  </si>
-  <si>
-    <t>12/26/1972</t>
-  </si>
-  <si>
-    <t>07/16/1982</t>
-  </si>
-  <si>
-    <t>09/17/1971</t>
-  </si>
-  <si>
-    <t>08/30/2002</t>
-  </si>
-  <si>
-    <t>08/27/1989</t>
-  </si>
-  <si>
-    <t>03/22/1972</t>
-  </si>
-  <si>
-    <t>05/21/1921</t>
-  </si>
-  <si>
-    <t>09/28/2018</t>
-  </si>
-  <si>
-    <t>07/15/1909</t>
-  </si>
-  <si>
-    <t>08/15/1905</t>
-  </si>
-  <si>
-    <t>01/13/1921</t>
-  </si>
-  <si>
-    <t>04/13/1924</t>
-  </si>
-  <si>
-    <t>09/13/1909</t>
-  </si>
-  <si>
-    <t>04/26/1928</t>
-  </si>
-  <si>
     <t>Remodelado</t>
   </si>
   <si>
@@ -241,13 +76,316 @@
   </si>
   <si>
     <t>Madera</t>
+  </si>
+  <si>
+    <t>fconstruccion</t>
+  </si>
+  <si>
+    <t>1998-10-24</t>
+  </si>
+  <si>
+    <t>1938-04-24</t>
+  </si>
+  <si>
+    <t>1965-05-07</t>
+  </si>
+  <si>
+    <t>1928-11-20</t>
+  </si>
+  <si>
+    <t>2009-06-22</t>
+  </si>
+  <si>
+    <t>2016-12-11</t>
+  </si>
+  <si>
+    <t>1917-02-25</t>
+  </si>
+  <si>
+    <t>1907-04-25</t>
+  </si>
+  <si>
+    <t>1999-11-12</t>
+  </si>
+  <si>
+    <t>1963-02-08</t>
+  </si>
+  <si>
+    <t>1923-01-31</t>
+  </si>
+  <si>
+    <t>1968-07-30</t>
+  </si>
+  <si>
+    <t>1902-02-08</t>
+  </si>
+  <si>
+    <t>1983-03-03</t>
+  </si>
+  <si>
+    <t>1910-06-03</t>
+  </si>
+  <si>
+    <t>1903-03-19</t>
+  </si>
+  <si>
+    <t>2006-01-25</t>
+  </si>
+  <si>
+    <t>1991-08-19</t>
+  </si>
+  <si>
+    <t>1952-01-23</t>
+  </si>
+  <si>
+    <t>2003-12-06</t>
+  </si>
+  <si>
+    <t>1914-05-15</t>
+  </si>
+  <si>
+    <t>1981-04-11</t>
+  </si>
+  <si>
+    <t>1998-04-09</t>
+  </si>
+  <si>
+    <t>1987-11-03</t>
+  </si>
+  <si>
+    <t>1911-12-26</t>
+  </si>
+  <si>
+    <t>1918-03-17</t>
+  </si>
+  <si>
+    <t>1995-12-18</t>
+  </si>
+  <si>
+    <t>1948-03-05</t>
+  </si>
+  <si>
+    <t>1913-04-12</t>
+  </si>
+  <si>
+    <t>1948-08-19</t>
+  </si>
+  <si>
+    <t>1977-09-17</t>
+  </si>
+  <si>
+    <t>1973-09-12</t>
+  </si>
+  <si>
+    <t>1912-03-27</t>
+  </si>
+  <si>
+    <t>1919-10-22</t>
+  </si>
+  <si>
+    <t>1921-09-19</t>
+  </si>
+  <si>
+    <t>1981-11-14</t>
+  </si>
+  <si>
+    <t>1933-06-26</t>
+  </si>
+  <si>
+    <t>1934-03-02</t>
+  </si>
+  <si>
+    <t>1933-03-11</t>
+  </si>
+  <si>
+    <t>1919-05-19</t>
+  </si>
+  <si>
+    <t>1976-03-30</t>
+  </si>
+  <si>
+    <t>1991-01-22</t>
+  </si>
+  <si>
+    <t>1913-01-29</t>
+  </si>
+  <si>
+    <t>1985-05-25</t>
+  </si>
+  <si>
+    <t>1976-01-16</t>
+  </si>
+  <si>
+    <t>1913-04-02</t>
+  </si>
+  <si>
+    <t>1930-09-21</t>
+  </si>
+  <si>
+    <t>1993-07-05</t>
+  </si>
+  <si>
+    <t>1986-01-02</t>
+  </si>
+  <si>
+    <t>1900-09-18</t>
+  </si>
+  <si>
+    <t>1940-09-15</t>
+  </si>
+  <si>
+    <t>2004-07-11</t>
+  </si>
+  <si>
+    <t>1973-03-24</t>
+  </si>
+  <si>
+    <t>1955-09-10</t>
+  </si>
+  <si>
+    <t>1945-09-26</t>
+  </si>
+  <si>
+    <t>1964-07-24</t>
+  </si>
+  <si>
+    <t>1982-05-25</t>
+  </si>
+  <si>
+    <t>1917-04-13</t>
+  </si>
+  <si>
+    <t>1955-11-01</t>
+  </si>
+  <si>
+    <t>1989-03-31</t>
+  </si>
+  <si>
+    <t>2015-10-28</t>
+  </si>
+  <si>
+    <t>1983-01-31</t>
+  </si>
+  <si>
+    <t>1994-09-18</t>
+  </si>
+  <si>
+    <t>1937-06-02</t>
+  </si>
+  <si>
+    <t>1989-05-30</t>
+  </si>
+  <si>
+    <t>1901-05-23</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>1913-12-02</t>
+  </si>
+  <si>
+    <t>1994-01-31</t>
+  </si>
+  <si>
+    <t>1950-07-01</t>
+  </si>
+  <si>
+    <t>1937-12-28</t>
+  </si>
+  <si>
+    <t>1963-09-23</t>
+  </si>
+  <si>
+    <t>1966-09-10</t>
+  </si>
+  <si>
+    <t>1945-11-09</t>
+  </si>
+  <si>
+    <t>1954-05-09</t>
+  </si>
+  <si>
+    <t>2012-01-27</t>
+  </si>
+  <si>
+    <t>1938-05-21</t>
+  </si>
+  <si>
+    <t>1954-04-30</t>
+  </si>
+  <si>
+    <t>1982-03-20</t>
+  </si>
+  <si>
+    <t>1950-06-14</t>
+  </si>
+  <si>
+    <t>1980-02-19</t>
+  </si>
+  <si>
+    <t>1963-12-11</t>
+  </si>
+  <si>
+    <t>1941-05-20</t>
+  </si>
+  <si>
+    <t>1959-01-03</t>
+  </si>
+  <si>
+    <t>1959-02-24</t>
+  </si>
+  <si>
+    <t>1991-09-15</t>
+  </si>
+  <si>
+    <t>2013-02-03</t>
+  </si>
+  <si>
+    <t>1992-05-12</t>
+  </si>
+  <si>
+    <t>2010-04-10</t>
+  </si>
+  <si>
+    <t>1933-01-20</t>
+  </si>
+  <si>
+    <t>2012-12-22</t>
+  </si>
+  <si>
+    <t>1947-08-02</t>
+  </si>
+  <si>
+    <t>1948-12-02</t>
+  </si>
+  <si>
+    <t>1997-05-10</t>
+  </si>
+  <si>
+    <t>1969-04-21</t>
+  </si>
+  <si>
+    <t>1984-08-16</t>
+  </si>
+  <si>
+    <t>2012-10-25</t>
+  </si>
+  <si>
+    <t>1942-12-29</t>
+  </si>
+  <si>
+    <t>1971-09-14</t>
+  </si>
+  <si>
+    <t>1991-12-08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +519,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -680,7 +823,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -723,17 +866,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -771,6 +913,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1055,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="D90" workbookViewId="0">
+      <selection activeCell="O99" sqref="O99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1117,10 +1260,10 @@
         <v>7066625</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1144,10 +1287,10 @@
         <v>8808448</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1158,10 +1301,10 @@
         <v>8810955</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>9</v>
@@ -1185,10 +1328,10 @@
         <v>6351401</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="2">
-        <v>27767</v>
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1199,10 +1342,10 @@
         <v>5801690</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1226,10 +1369,10 @@
         <v>4700115</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="2">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1240,10 +1383,10 @@
         <v>1945821</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1267,10 +1410,10 @@
         <v>1687344</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="2">
-        <v>43586</v>
+        <v>15</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1281,10 +1424,10 @@
         <v>7925172</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1308,10 +1451,10 @@
         <v>7255821</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="2">
-        <v>27006</v>
+        <v>12</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1322,10 +1465,10 @@
         <v>2201132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1349,10 +1492,10 @@
         <v>7319906</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="2">
-        <v>14979</v>
+        <v>13</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1363,10 +1506,10 @@
         <v>4588631</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1390,10 +1533,10 @@
         <v>2091924</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="2">
-        <v>30437</v>
+        <v>14</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1404,10 +1547,10 @@
         <v>1847793</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -1431,10 +1574,10 @@
         <v>1049917</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1445,10 +1588,10 @@
         <v>1966752</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -1472,10 +1615,10 @@
         <v>3124550</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1486,10 +1629,10 @@
         <v>1196798</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -1513,10 +1656,10 @@
         <v>5154916</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1527,10 +1670,10 @@
         <v>8536887</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1554,10 +1697,10 @@
         <v>2559875</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1568,10 +1711,10 @@
         <v>1998561</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1">
         <v>9</v>
@@ -1595,10 +1738,10 @@
         <v>4607082</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2082</v>
+        <v>15</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1609,10 +1752,10 @@
         <v>3505112</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1636,10 +1779,10 @@
         <v>1264649</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="2">
-        <v>22192</v>
+        <v>12</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1650,10 +1793,10 @@
         <v>2134006</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1677,10 +1820,10 @@
         <v>3463269</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="2">
-        <v>40946</v>
+        <v>13</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1691,10 +1834,10 @@
         <v>7824609</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
         <v>9</v>
@@ -1718,10 +1861,10 @@
         <v>9284139</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="2">
-        <v>18112</v>
+        <v>14</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1732,10 +1875,10 @@
         <v>6461935</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1759,10 +1902,10 @@
         <v>953008</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="2">
-        <v>16650</v>
+        <v>15</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1773,10 +1916,10 @@
         <v>4102594</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -1800,10 +1943,10 @@
         <v>1706253</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1814,10 +1957,10 @@
         <v>9759167</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
@@ -1841,10 +1984,10 @@
         <v>2631113</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1855,10 +1998,10 @@
         <v>6857380</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
         <v>7</v>
@@ -1882,10 +2025,10 @@
         <v>8702780</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="2">
-        <v>28257</v>
+        <v>14</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1896,10 +2039,10 @@
         <v>3623494</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
@@ -1923,10 +2066,10 @@
         <v>8334629</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1937,10 +2080,10 @@
         <v>2080512</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1">
         <v>9</v>
@@ -1964,10 +2107,10 @@
         <v>1546919</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1978,10 +2121,10 @@
         <v>3690734</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2005,10 +2148,10 @@
         <v>7772549</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="2">
-        <v>21132</v>
+        <v>13</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2019,10 +2162,10 @@
         <v>973746</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
@@ -2046,10 +2189,10 @@
         <v>6436090</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2060,10 +2203,10 @@
         <v>5870683</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1">
         <v>6</v>
@@ -2087,10 +2230,10 @@
         <v>59223</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2101,10 +2244,10 @@
         <v>5604512</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -2128,10 +2271,10 @@
         <v>9794280</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M26" s="2">
-        <v>14622</v>
+        <v>12</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2142,10 +2285,10 @@
         <v>2823541</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -2169,10 +2312,10 @@
         <v>5781117</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2183,10 +2326,10 @@
         <v>1955475</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -2210,10 +2353,10 @@
         <v>5292171</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" s="2">
-        <v>22626</v>
+        <v>14</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2224,10 +2367,10 @@
         <v>8965245</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1">
         <v>9</v>
@@ -2251,10 +2394,10 @@
         <v>7398261</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" s="2">
-        <v>2287</v>
+        <v>15</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2265,10 +2408,10 @@
         <v>8150833</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1">
         <v>9</v>
@@ -2292,10 +2435,10 @@
         <v>8384386</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2306,10 +2449,10 @@
         <v>4029011</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -2333,10 +2476,10 @@
         <v>57221</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M31" s="2">
-        <v>23531</v>
+        <v>13</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2347,10 +2490,10 @@
         <v>1352873</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
@@ -2374,10 +2517,10 @@
         <v>654280</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M32" s="2">
-        <v>19999</v>
+        <v>14</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2388,10 +2531,10 @@
         <v>5350665</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
@@ -2415,10 +2558,10 @@
         <v>8232374</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2429,10 +2572,10 @@
         <v>6367420</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2456,10 +2599,10 @@
         <v>458025</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2470,10 +2613,10 @@
         <v>9190359</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1">
         <v>4</v>
@@ -2497,10 +2640,10 @@
         <v>3906693</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2511,10 +2654,10 @@
         <v>4143654</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
@@ -2538,10 +2681,10 @@
         <v>970225</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M36" s="2">
-        <v>5698</v>
+        <v>14</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2552,10 +2695,10 @@
         <v>4952617</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1">
         <v>7</v>
@@ -2579,10 +2722,10 @@
         <v>6239548</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2593,10 +2736,10 @@
         <v>4857318</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1">
         <v>9</v>
@@ -2620,10 +2763,10 @@
         <v>1437061</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M38" s="2">
-        <v>34127</v>
+        <v>12</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2634,10 +2777,10 @@
         <v>2909574</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -2661,10 +2804,10 @@
         <v>8262027</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M39" s="2">
-        <v>41030</v>
+        <v>13</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2675,10 +2818,10 @@
         <v>6321828</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
@@ -2702,10 +2845,10 @@
         <v>6632205</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M40" s="2">
-        <v>39329</v>
+        <v>14</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2716,10 +2859,10 @@
         <v>1764427</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
@@ -2743,10 +2886,10 @@
         <v>8292473</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M41" s="2">
-        <v>40944</v>
+        <v>15</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2757,10 +2900,10 @@
         <v>866614</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -2784,10 +2927,10 @@
         <v>7657074</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2798,10 +2941,10 @@
         <v>6004311</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E43" s="1">
         <v>8</v>
@@ -2825,10 +2968,10 @@
         <v>480652</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M43" s="2">
-        <v>41155</v>
+        <v>13</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2839,10 +2982,10 @@
         <v>918764</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -2866,10 +3009,10 @@
         <v>1632348</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M44" s="2">
-        <v>33086</v>
+        <v>14</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2880,10 +3023,10 @@
         <v>9080044</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1">
         <v>9</v>
@@ -2907,10 +3050,10 @@
         <v>8286242</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M45" s="2">
-        <v>24939</v>
+        <v>15</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2921,10 +3064,10 @@
         <v>2560489</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
@@ -2948,10 +3091,10 @@
         <v>6543307</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M46" s="2">
-        <v>10053</v>
+        <v>12</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2962,10 +3105,10 @@
         <v>1035570</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1">
         <v>6</v>
@@ -2989,10 +3132,10 @@
         <v>716720</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3003,10 +3146,10 @@
         <v>1196772</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -3030,10 +3173,10 @@
         <v>2304838</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3044,10 +3187,10 @@
         <v>2382066</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3071,10 +3214,10 @@
         <v>7892673</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M49" s="2">
-        <v>6119</v>
+        <v>15</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3085,10 +3228,10 @@
         <v>5445650</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -3112,10 +3255,10 @@
         <v>834841</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3126,10 +3269,10 @@
         <v>3882691</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E51" s="1">
         <v>4</v>
@@ -3153,10 +3296,10 @@
         <v>6410728</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M51" s="2">
-        <v>13244</v>
+        <v>13</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3167,10 +3310,10 @@
         <v>7341533</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1">
         <v>4</v>
@@ -3194,10 +3337,10 @@
         <v>7738818</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M52" s="2">
-        <v>15496</v>
+        <v>14</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3208,10 +3351,10 @@
         <v>9554014</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -3235,10 +3378,10 @@
         <v>877737</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3249,10 +3392,10 @@
         <v>7330967</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1">
         <v>4</v>
@@ -3276,10 +3419,10 @@
         <v>3514992</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3290,10 +3433,10 @@
         <v>3043162</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E55" s="1">
         <v>5</v>
@@ -3317,10 +3460,10 @@
         <v>5873113</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3331,10 +3474,10 @@
         <v>7968147</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E56" s="1">
         <v>9</v>
@@ -3358,10 +3501,10 @@
         <v>6126731</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3372,10 +3515,10 @@
         <v>2673681</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E57" s="1">
         <v>7</v>
@@ -3399,10 +3542,10 @@
         <v>521391</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3413,10 +3556,10 @@
         <v>2646413</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -3440,10 +3583,10 @@
         <v>2021471</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3454,10 +3597,10 @@
         <v>3852272</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -3481,10 +3624,10 @@
         <v>4105366</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3495,10 +3638,10 @@
         <v>1884704</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E60" s="1">
         <v>4</v>
@@ -3522,10 +3665,10 @@
         <v>1069447</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3536,10 +3679,10 @@
         <v>8682989</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -3563,10 +3706,10 @@
         <v>5450711</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3577,10 +3720,10 @@
         <v>2832235</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -3604,10 +3747,10 @@
         <v>7233232</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M62" s="2">
-        <v>17327</v>
+        <v>12</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3618,10 +3761,10 @@
         <v>8008301</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E63" s="1">
         <v>8</v>
@@ -3645,10 +3788,10 @@
         <v>1934210</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3659,10 +3802,10 @@
         <v>1120714</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
@@ -3686,10 +3829,10 @@
         <v>9443275</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M64" s="2">
-        <v>6856</v>
+        <v>14</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3700,10 +3843,10 @@
         <v>3222395</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
@@ -3727,10 +3870,10 @@
         <v>887857</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3741,10 +3884,10 @@
         <v>9220455</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E66" s="1">
         <v>5</v>
@@ -3768,10 +3911,10 @@
         <v>7515450</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3782,10 +3925,10 @@
         <v>8086342</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -3809,10 +3952,10 @@
         <v>6152945</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3823,10 +3966,10 @@
         <v>3543979</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E68" s="1">
         <v>4</v>
@@ -3850,10 +3993,10 @@
         <v>3155934</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3864,10 +4007,10 @@
         <v>2340538</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E69" s="1">
         <v>4</v>
@@ -3891,10 +4034,10 @@
         <v>4689507</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3905,10 +4048,10 @@
         <v>5599565</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E70" s="1">
         <v>5</v>
@@ -3932,10 +4075,10 @@
         <v>384190</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3946,10 +4089,10 @@
         <v>7958757</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E71" s="1">
         <v>9</v>
@@ -3973,10 +4116,10 @@
         <v>2947494</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3987,10 +4130,10 @@
         <v>921372</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -4014,10 +4157,10 @@
         <v>5642207</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -4028,10 +4171,10 @@
         <v>5362296</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E73" s="1">
         <v>8</v>
@@ -4055,10 +4198,10 @@
         <v>1564905</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -4069,10 +4212,10 @@
         <v>1193849</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -4096,10 +4239,10 @@
         <v>2332647</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M74" s="2">
-        <v>7710</v>
+        <v>12</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -4110,10 +4253,10 @@
         <v>1380883</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E75" s="1">
         <v>5</v>
@@ -4137,10 +4280,10 @@
         <v>657571</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4151,10 +4294,10 @@
         <v>5476287</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -4178,10 +4321,10 @@
         <v>7393207</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4192,10 +4335,10 @@
         <v>9960702</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
@@ -4219,10 +4362,10 @@
         <v>350264</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4233,10 +4376,10 @@
         <v>545774</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -4260,10 +4403,10 @@
         <v>3763489</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M78" s="2">
-        <v>40634</v>
+        <v>12</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4274,10 +4417,10 @@
         <v>895180</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
@@ -4301,10 +4444,10 @@
         <v>1317474</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4315,10 +4458,10 @@
         <v>5945835</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E80" s="1">
         <v>5</v>
@@ -4342,10 +4485,10 @@
         <v>4567937</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4356,10 +4499,10 @@
         <v>4869775</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E81" s="1">
         <v>6</v>
@@ -4383,10 +4526,10 @@
         <v>5269077</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M81" s="2">
-        <v>4486</v>
+        <v>15</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4397,10 +4540,10 @@
         <v>9919386</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -4424,10 +4567,10 @@
         <v>9009286</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4438,10 +4581,10 @@
         <v>5061738</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E83" s="1">
         <v>7</v>
@@ -4465,10 +4608,10 @@
         <v>2352084</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4479,10 +4622,10 @@
         <v>5623849</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -4506,10 +4649,10 @@
         <v>1045641</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4520,10 +4663,10 @@
         <v>4996650</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -4547,10 +4690,10 @@
         <v>6608331</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M85" s="2">
-        <v>8289</v>
+        <v>15</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4561,10 +4704,10 @@
         <v>3512392</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E86" s="1">
         <v>8</v>
@@ -4588,10 +4731,10 @@
         <v>2214136</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4602,10 +4745,10 @@
         <v>5452304</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E87" s="1">
         <v>7</v>
@@ -4629,10 +4772,10 @@
         <v>5837054</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M87" s="2">
-        <v>3717</v>
+        <v>13</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4643,10 +4786,10 @@
         <v>5917545</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E88" s="1">
         <v>8</v>
@@ -4670,10 +4813,10 @@
         <v>5999295</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M88" s="2">
-        <v>25570</v>
+        <v>14</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4684,10 +4827,10 @@
         <v>6383931</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E89" s="1">
         <v>3</v>
@@ -4711,10 +4854,10 @@
         <v>7660283</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4725,10 +4868,10 @@
         <v>6423905</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E90" s="1">
         <v>7</v>
@@ -4752,10 +4895,10 @@
         <v>1914736</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M90" s="2">
-        <v>39692</v>
+        <v>12</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4766,10 +4909,10 @@
         <v>5835019</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E91" s="1">
         <v>7</v>
@@ -4793,10 +4936,10 @@
         <v>6496047</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M91" s="2">
-        <v>13913</v>
+        <v>13</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4807,10 +4950,10 @@
         <v>885164</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E92" s="1">
         <v>4</v>
@@ -4834,10 +4977,10 @@
         <v>6245523</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M92" s="2">
-        <v>27644</v>
+        <v>14</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4848,10 +4991,10 @@
         <v>7042930</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
@@ -4875,10 +5018,10 @@
         <v>3693821</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M93" s="2">
-        <v>39234</v>
+        <v>15</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4889,10 +5032,10 @@
         <v>797790</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
@@ -4916,10 +5059,10 @@
         <v>7334822</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M94" s="2">
-        <v>5755</v>
+        <v>12</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4930,10 +5073,10 @@
         <v>4916360</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E95" s="1">
         <v>4</v>
@@ -4957,10 +5100,10 @@
         <v>3405980</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4971,10 +5114,10 @@
         <v>5093753</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E96" s="1">
         <v>8</v>
@@ -4998,10 +5141,10 @@
         <v>9203481</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M96" s="2">
-        <v>29896</v>
+        <v>14</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -5012,10 +5155,10 @@
         <v>8991972</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
@@ -5039,10 +5182,10 @@
         <v>5462335</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -5053,10 +5196,10 @@
         <v>2190468</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
@@ -5080,10 +5223,10 @@
         <v>8166925</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -5094,10 +5237,10 @@
         <v>6202952</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -5121,10 +5264,10 @@
         <v>6819478</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M99" s="2">
-        <v>4510</v>
+        <v>13</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -5135,10 +5278,10 @@
         <v>6142634</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E100" s="1">
         <v>5</v>
@@ -5162,10 +5305,10 @@
         <v>7222727</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M100" s="2">
-        <v>11001</v>
+        <v>14</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -5176,10 +5319,10 @@
         <v>9964926</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -5203,10 +5346,10 @@
         <v>6180430</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
